--- a/data/trans_camb/P14B23-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14B23-Edad-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>1.115685226024042</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.472596305035627</v>
+        <v>2.472596305035626</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2084977412870059</v>
+        <v>-0.1806518225960985</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3705674908846097</v>
+        <v>0.3779515334753435</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2998466337661831</v>
+        <v>0.5324715924205149</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9356898072162851</v>
+        <v>0.9263252395541892</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2268824197616012</v>
+        <v>0.3085917249604713</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.065404623939189</v>
+        <v>1.034710815044462</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.778452168727266</v>
+        <v>1.557711935346385</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.380045793036556</v>
+        <v>5.087265582826134</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.879659826165196</v>
+        <v>4.124545590113313</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.564713764979705</v>
+        <v>6.791074507587669</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.246474344461694</v>
+        <v>2.193834258206102</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.794896178123445</v>
+        <v>4.562587213724902</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>3.521416908979483</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7.804210573498282</v>
+        <v>7.804210573498281</v>
       </c>
     </row>
     <row r="8">
@@ -715,16 +715,16 @@
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>-0.1436391053505135</v>
+        <v>-0.2589057502451337</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0366722657363193</v>
+        <v>-0.01386378878264128</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08131876974112723</v>
+        <v>0.02516232481232674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.241190296600737</v>
+        <v>0.8326516252928839</v>
       </c>
     </row>
     <row r="9">
@@ -739,9 +739,11 @@
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>20.31138400312388</v>
-      </c>
-      <c r="H9" s="6" t="inlineStr"/>
+        <v>18.48811195733706</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>37.381986578208</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -770,7 +772,7 @@
         <v>-0.9974737962154732</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.333215406687674</v>
+        <v>1.333215406687675</v>
       </c>
     </row>
     <row r="11">
@@ -781,22 +783,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.115054214973286</v>
+        <v>-1.100451600310214</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3504409065485941</v>
+        <v>-0.39968469363145</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.377082901855967</v>
+        <v>-3.429473380501056</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4709297277256327</v>
+        <v>-0.36934905736865</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.882465215522647</v>
+        <v>-1.866028556971702</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.005703579406893412</v>
+        <v>-0.03962946582344556</v>
       </c>
     </row>
     <row r="12">
@@ -807,22 +809,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.242356875591622</v>
+        <v>0.3756704702665867</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.586005107975248</v>
+        <v>2.562464732844816</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.09313577488284111</v>
+        <v>-0.1167634563194805</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.605402425312541</v>
+        <v>4.451719906832485</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.1420799757894771</v>
+        <v>-0.05812907763101997</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.938969559701136</v>
+        <v>2.74415774213422</v>
       </c>
     </row>
     <row r="13">
@@ -848,7 +850,7 @@
         <v>-0.5902687967943189</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7889484986562838</v>
+        <v>0.7889484986562845</v>
       </c>
     </row>
     <row r="14">
@@ -860,19 +862,19 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>-0.4645393765979662</v>
+        <v>-0.6410427423046102</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8718536941201949</v>
+        <v>-0.868221409261542</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1484050406984763</v>
+        <v>-0.1262357334651719</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8450730636477203</v>
+        <v>-0.8271493162613289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.007827028448878698</v>
+        <v>-0.05730528091620968</v>
       </c>
     </row>
     <row r="15">
@@ -884,19 +886,19 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>8.219761972949094</v>
+        <v>8.066747366573424</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.04539456457374002</v>
+        <v>0.03904799021796975</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.406597714258893</v>
+        <v>2.311578292199312</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.03168911224016465</v>
+        <v>0.08749951705053846</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.334239873079313</v>
+        <v>2.162398237703939</v>
       </c>
     </row>
     <row r="16">
@@ -926,7 +928,7 @@
         <v>-2.390282290693834</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.6084999546607948</v>
+        <v>-0.6084999546607961</v>
       </c>
     </row>
     <row r="17">
@@ -937,22 +939,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.855516698136224</v>
+        <v>-3.801445959718428</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.057760597189634</v>
+        <v>-2.06185420309145</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.207235707421335</v>
+        <v>-5.306791202187809</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.750773620674995</v>
+        <v>-4.046358890094672</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.952321904678505</v>
+        <v>-4.054327290826419</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.221038424192149</v>
+        <v>-2.229472463228543</v>
       </c>
     </row>
     <row r="18">
@@ -963,22 +965,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.009713906060316402</v>
+        <v>-0.2271348688398114</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.54114568548906</v>
+        <v>2.524241040738235</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.405530756226588</v>
+        <v>-0.30057249411689</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.064294254208562</v>
+        <v>0.9998754719521472</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.8533587755189069</v>
+        <v>-0.8090007535795449</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.130260395735562</v>
+        <v>1.148351875857951</v>
       </c>
     </row>
     <row r="19">
@@ -1004,7 +1006,7 @@
         <v>-0.4623177297682843</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1176933447142023</v>
+        <v>-0.1176933447142026</v>
       </c>
     </row>
     <row r="20">
@@ -1015,22 +1017,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7745906427076913</v>
+        <v>-0.7843524023970836</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4430994600286922</v>
+        <v>-0.4572599334715865</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6237482537947527</v>
+        <v>-0.6282250154845213</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4704670011743944</v>
+        <v>-0.4865698710274091</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6373400168164799</v>
+        <v>-0.6551484679129752</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3710403260997585</v>
+        <v>-0.3712262083464765</v>
       </c>
     </row>
     <row r="21">
@@ -1041,22 +1043,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1098216569293331</v>
+        <v>-0.03840631672790559</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9752526854392802</v>
+        <v>1.040159123715664</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.0481499098817912</v>
+        <v>-0.03211849059598208</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2114400738032922</v>
+        <v>0.2087101315866204</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1933807708233045</v>
+        <v>-0.1698215066961993</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2499565205804251</v>
+        <v>0.2725085655862094</v>
       </c>
     </row>
     <row r="22">
@@ -1080,13 +1082,13 @@
         <v>0.07297907603149578</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7363016592964913</v>
+        <v>0.7363016592964899</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2913226751847908</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.611588964726225</v>
+        <v>1.611588964726227</v>
       </c>
     </row>
     <row r="23">
@@ -1097,22 +1099,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.531935460690631</v>
+        <v>-1.361970585450272</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3800505506116224</v>
+        <v>0.2537194675434887</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.036248934769139</v>
+        <v>-3.332347802451463</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.545052342129287</v>
+        <v>-2.397967283497037</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.592472710948523</v>
+        <v>-1.673500844625071</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.05002387523687771</v>
+        <v>-0.2967024691759933</v>
       </c>
     </row>
     <row r="24">
@@ -1123,22 +1125,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.417905608496003</v>
+        <v>2.251183683167779</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.851934688084837</v>
+        <v>4.71886678448222</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.139678106104356</v>
+        <v>3.14760785740621</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.26959138078572</v>
+        <v>3.288632092193791</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.090504006419668</v>
+        <v>2.155421418194317</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.340752323961142</v>
+        <v>3.319673978593262</v>
       </c>
     </row>
     <row r="25">
@@ -1158,13 +1160,13 @@
         <v>0.009459058952349103</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.09543448863331994</v>
+        <v>0.09543448863331976</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05691103317716864</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3148302581709965</v>
+        <v>0.3148302581709968</v>
       </c>
     </row>
     <row r="26">
@@ -1175,22 +1177,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4387247380461264</v>
+        <v>-0.4179196866319134</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.01084184449754324</v>
+        <v>0.01043556698628097</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3429539252911137</v>
+        <v>-0.3312730627670157</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2565591206454049</v>
+        <v>-0.2400637445339429</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2494537720853214</v>
+        <v>-0.2724806251643067</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.01202923659376516</v>
+        <v>-0.05233439701116905</v>
       </c>
     </row>
     <row r="27">
@@ -1201,22 +1203,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.555465869327561</v>
+        <v>1.408580677912021</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.987875147029725</v>
+        <v>2.602959560106834</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.537909254939533</v>
+        <v>0.5037776116617801</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5667725954800172</v>
+        <v>0.5223733485264342</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5136932560355429</v>
+        <v>0.5058593844817985</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7968235045508832</v>
+        <v>0.7985226669799429</v>
       </c>
     </row>
     <row r="28">
@@ -1240,13 +1242,13 @@
         <v>-1.972140457252557</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-1.523268691403685</v>
+        <v>-1.523268691403683</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-1.253879833812664</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.2658620935893086</v>
+        <v>-0.2658620935893072</v>
       </c>
     </row>
     <row r="29">
@@ -1257,22 +1259,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.355103396379142</v>
+        <v>-3.095554020019293</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.611719908676599</v>
+        <v>-1.746453142184109</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.114167674528936</v>
+        <v>-6.302821489931956</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.580920121929687</v>
+        <v>-5.52106842027067</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.215104569130624</v>
+        <v>-4.136875028903341</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.994431733160074</v>
+        <v>-2.726222252099888</v>
       </c>
     </row>
     <row r="30">
@@ -1283,22 +1285,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.029474452244259</v>
+        <v>2.090014811578824</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.468234381655961</v>
+        <v>3.539517614826457</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.373685193744724</v>
+        <v>2.617012089437983</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.3430247478282</v>
+        <v>2.064555043776441</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.32976169129531</v>
+        <v>1.548207641021553</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.807694639825375</v>
+        <v>2.09614689837643</v>
       </c>
     </row>
     <row r="31">
@@ -1318,13 +1320,13 @@
         <v>-0.1478009887110775</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.1141605395468351</v>
+        <v>-0.1141605395468349</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.1407224004503123</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.02983758968742035</v>
+        <v>-0.0298375896874202</v>
       </c>
     </row>
     <row r="32">
@@ -1335,22 +1337,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.577477568508986</v>
+        <v>-0.5731516861641994</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2886501061400256</v>
+        <v>-0.2806135567744895</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3905852426897871</v>
+        <v>-0.409562199353999</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3452524835582342</v>
+        <v>-0.3424235167856071</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3938829004096636</v>
+        <v>-0.3927737489280596</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2827349886980818</v>
+        <v>-0.2588740344382171</v>
       </c>
     </row>
     <row r="33">
@@ -1361,22 +1363,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7327911613909665</v>
+        <v>0.8621857259525628</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.126715062506479</v>
+        <v>1.283744837365622</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.217795540835129</v>
+        <v>0.254053375469071</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2153505806809723</v>
+        <v>0.1874922660491527</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1769229806791167</v>
+        <v>0.218102688070066</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2375127389137819</v>
+        <v>0.2917704130450183</v>
       </c>
     </row>
     <row r="34">
@@ -1394,13 +1396,13 @@
         <v>-2.516515618709476</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-0.8196032939720279</v>
+        <v>-0.8196032939720284</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-3.492770772869173</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>-4.611809733350503</v>
+        <v>-4.611809733350507</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-3.075883359936496</v>
@@ -1417,22 +1419,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.590797663766713</v>
+        <v>-5.839514516789792</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.009105644406418</v>
+        <v>-4.162513801834223</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-9.608430373423623</v>
+        <v>-8.534079807457386</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-8.642116152524943</v>
+        <v>-8.985368529695865</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.076122780071176</v>
+        <v>-5.868571913598833</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.028410651375214</v>
+        <v>-5.780075300177186</v>
       </c>
     </row>
     <row r="36">
@@ -1443,22 +1445,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.1380937628691307</v>
+        <v>-0.393829086527871</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.497454065622522</v>
+        <v>1.596045714578743</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.9338682399708018</v>
+        <v>1.54673221354783</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-0.375366583758875</v>
+        <v>-0.4522558952505661</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.3325742010954834</v>
+        <v>0.2238810330594899</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.4020972167500935</v>
+        <v>-0.4040991531322111</v>
       </c>
     </row>
     <row r="37">
@@ -1472,13 +1474,13 @@
         <v>-0.6847303813116729</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.2230096534404063</v>
+        <v>-0.2230096534404064</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.2341775444039617</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>-0.3092050262797943</v>
+        <v>-0.3092050262797946</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.3177774612311601</v>
@@ -1495,22 +1497,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.9361292553365332</v>
+        <v>-0.9354394863785028</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6813728530431159</v>
+        <v>-0.6585265963375317</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5131178724467078</v>
+        <v>-0.470535396300273</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4895490054513101</v>
+        <v>-0.4939003056646291</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5273153526841784</v>
+        <v>-0.5279784399192708</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5037329479349046</v>
+        <v>-0.4910368751045105</v>
       </c>
     </row>
     <row r="39">
@@ -1521,22 +1523,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1766185323259504</v>
+        <v>0.01115341709751051</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.9288157313296427</v>
+        <v>0.919801411525249</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.09608700955565699</v>
+        <v>0.1513397445823204</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.0308481181626591</v>
+        <v>-0.04462569196514905</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.04364023549778353</v>
+        <v>0.03507044286774616</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.04663993774720918</v>
+        <v>-0.03818836777247321</v>
       </c>
     </row>
     <row r="40">
@@ -1560,13 +1562,13 @@
         <v>-3.656477708760432</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>-4.22153035758092</v>
+        <v>-4.221530357580922</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>-2.217532438268874</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-2.053984768889038</v>
+        <v>-2.053984768889039</v>
       </c>
     </row>
     <row r="41">
@@ -1577,22 +1579,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.634678313238821</v>
+        <v>-3.44593869589901</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.333729787863771</v>
+        <v>-2.835005862039027</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-8.997599232266278</v>
+        <v>-8.757680862495681</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-8.810428186450686</v>
+        <v>-8.599869032011849</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-5.671997337169699</v>
+        <v>-5.428432844657202</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-5.144907402443242</v>
+        <v>-5.206323952345558</v>
       </c>
     </row>
     <row r="42">
@@ -1603,22 +1605,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.993372346452181</v>
+        <v>3.300628497157697</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.673716126032218</v>
+        <v>4.675220265133076</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.395051071528063</v>
+        <v>2.348756336584955</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-0.1873137704689309</v>
+        <v>-0.01174599263670133</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.424496896699793</v>
+        <v>1.251671192553542</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.8896718619321261</v>
+        <v>0.9555286110160676</v>
       </c>
     </row>
     <row r="43">
@@ -1638,13 +1640,13 @@
         <v>-0.2393093494224976</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>-0.2762909455237715</v>
+        <v>-0.2762909455237716</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>-0.2052492952887337</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.1901117291783001</v>
+        <v>-0.1901117291783002</v>
       </c>
     </row>
     <row r="44">
@@ -1655,22 +1657,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6456096289773917</v>
+        <v>-0.6096331871207817</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4299566597004627</v>
+        <v>-0.4635391448175026</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.503207292068517</v>
+        <v>-0.4914419937077043</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.476218964686785</v>
+        <v>-0.4680116703091877</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4496331071350895</v>
+        <v>-0.4343058410013321</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3873063657155063</v>
+        <v>-0.403106597479809</v>
       </c>
     </row>
     <row r="45">
@@ -1681,22 +1683,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.60039775165785</v>
+        <v>1.766133035358977</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.35767859135539</v>
+        <v>2.308577470007827</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1250632680174956</v>
+        <v>0.1942872620420033</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.01793659391511043</v>
+        <v>0.0003088691369432428</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1745272769581099</v>
+        <v>0.1431046873567497</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1057383763859724</v>
+        <v>0.1156531198767791</v>
       </c>
     </row>
     <row r="46">
@@ -1726,7 +1728,7 @@
         <v>-0.9166881665887805</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.6680804653658911</v>
+        <v>0.6680804653658896</v>
       </c>
     </row>
     <row r="47">
@@ -1737,22 +1739,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.239182449129804</v>
+        <v>-1.331968621906693</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.4861387495958867</v>
+        <v>0.5030243036113927</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.547443438339435</v>
+        <v>-2.620447542053252</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.28854355747831</v>
+        <v>-1.195174547698145</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.633850521370033</v>
+        <v>-1.69224809535551</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.08304362618966156</v>
+        <v>-0.186218734947011</v>
       </c>
     </row>
     <row r="48">
@@ -1763,22 +1765,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.2560800864553919</v>
+        <v>0.179324666588675</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.315857967276955</v>
+        <v>2.327826513338477</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.09781919174750933</v>
+        <v>-0.09739749269000213</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.086398224993618</v>
+        <v>1.325922222426646</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.2054624942343628</v>
+        <v>-0.1479457332728328</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.425408836452498</v>
+        <v>1.343471602094273</v>
       </c>
     </row>
     <row r="49">
@@ -1804,7 +1806,7 @@
         <v>-0.172652822346914</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.125829024639307</v>
+        <v>0.1258290246393067</v>
       </c>
     </row>
     <row r="50">
@@ -1815,22 +1817,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.420517565699397</v>
+        <v>-0.4423028195070473</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1688504372387031</v>
+        <v>0.1707960775590812</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2955707887159021</v>
+        <v>-0.301287209390327</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1459432390835071</v>
+        <v>-0.1351214929287678</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2889037314151521</v>
+        <v>-0.2965193911158898</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.01510570597052007</v>
+        <v>-0.03355884915571581</v>
       </c>
     </row>
     <row r="51">
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1288900453281654</v>
+        <v>0.08231626687328179</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.07812479474721</v>
+        <v>1.117094436129067</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.01067489510574136</v>
+        <v>-0.006335711388709116</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1450986037402701</v>
+        <v>0.1863098693633375</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.0411493951158665</v>
+        <v>-0.03141726786654801</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2911802078722934</v>
+        <v>0.2714989015624624</v>
       </c>
     </row>
     <row r="52">
